--- a/ERP.Presentacion/Excel/ShippingReportVincePO.xlsx
+++ b/ERP.Presentacion/Excel/ShippingReportVincePO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lendi Solutions IT\Asa Textile Sourcing\Documentos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F13D61-3A54-4097-9348-617229C5F446}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19566853-BDE8-4DF0-BD82-703E7ED124B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Style" sheetId="15" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Style!$A$3:$N$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Style!$A$3:$O$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="25">
   <si>
     <t>S</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">SHIPPING REPORT VINCE PO # </t>
+  </si>
+  <si>
+    <t>XXS</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,6 +391,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -742,13 +747,13 @@
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="14" width="8.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="15" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.4" customHeight="1"/>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
+    <row r="1" spans="1:16" ht="35.4" customHeight="1"/>
+    <row r="2" spans="1:16" ht="30" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
@@ -765,8 +770,9 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1">
+      <c r="O2" s="24"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -777,8 +783,8 @@
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1"/>
-    <row r="6" spans="1:15" ht="29.4" thickBot="1">
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1"/>
+    <row r="6" spans="1:16" ht="29.4" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,25 +810,28 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -835,12 +844,13 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -851,18 +861,19 @@
         <v>12</v>
       </c>
       <c r="H8" s="7">
-        <f>SUM(I8:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="8"/>
+        <f>SUM(I8:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O8" s="8"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -873,17 +884,18 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" ref="H9" si="0">SUM(I9:N9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="8"/>
+        <f>SUM(I9:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -898,31 +910,35 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" ref="I10:N10" si="1">I9-I8</f>
+        <f>I9-I8</f>
         <v>0</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J10:O10" si="0">J9-J8</f>
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A11" s="23"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -941,30 +957,34 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J11" s="18" t="e">
-        <f t="shared" ref="J11:N11" si="2">J10/J8</f>
+        <f>J10/J8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K11" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K11:O11" si="1">K10/K8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M11" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:15" ht="36" customHeight="1" thickBot="1">
+    <row r="13" spans="1:16" ht="36" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -989,26 +1009,27 @@
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -1021,12 +1042,13 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1037,17 +1059,18 @@
         <v>12</v>
       </c>
       <c r="H15" s="13">
-        <f>SUM(I15:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="14"/>
+        <f>SUM(I15:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1058,18 +1081,19 @@
         <v>13</v>
       </c>
       <c r="H16" s="13">
-        <f>SUM(I16:N16)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="14"/>
+        <f>SUM(I16:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O16" s="14"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1084,32 +1108,36 @@
         <v>0</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" ref="I17:N17" si="3">I16-I15</f>
+        <f>I16-I15</f>
         <v>0</v>
       </c>
       <c r="J17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J17:O17" si="2">J16-J15</f>
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A18" s="23"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1128,28 +1156,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="18" t="e">
-        <f t="shared" ref="J18:N18" si="4">J17/J15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f>J17/J15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="18" t="e">
+        <f t="shared" ref="K18:O18" si="3">K17/K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="20" spans="1:15" ht="33.75" customHeight="1" thickBot="1">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="20" spans="1:16" ht="33.75" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1174,26 +1206,27 @@
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+    <row r="21" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -1206,12 +1239,13 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -1222,17 +1256,18 @@
         <v>12</v>
       </c>
       <c r="H22" s="13">
-        <f>SUM(I22:N22)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="14"/>
+        <f>SUM(I22:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="13"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -1243,18 +1278,19 @@
         <v>13</v>
       </c>
       <c r="H23" s="13">
-        <f>SUM(I23:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="14"/>
+        <f>SUM(I23:O23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O23" s="14"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -1269,31 +1305,35 @@
         <v>0</v>
       </c>
       <c r="I24" s="13">
-        <f t="shared" ref="I24:N24" si="5">I23-I22</f>
+        <f>I23-I22</f>
         <v>0</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J24:O24" si="4">J23-J22</f>
         <v>0</v>
       </c>
       <c r="K24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N24" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="23"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1312,30 +1352,34 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="18" t="e">
-        <f t="shared" ref="J25:N25" si="6">J24/J22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="19" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="18" t="e">
-        <f t="shared" si="6"/>
+        <f>J24/J22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="18" t="e">
+        <f t="shared" ref="K25:O25" si="5">K24/K22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="19" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="18" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:15" ht="33" customHeight="1" thickBot="1">
+    <row r="27" spans="1:16" ht="33" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1360,26 +1404,27 @@
       <c r="H27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -1392,12 +1437,13 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -1408,17 +1454,18 @@
         <v>12</v>
       </c>
       <c r="H29" s="13">
-        <f>SUM(I29:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="14"/>
+        <f>SUM(I29:O29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1429,17 +1476,18 @@
         <v>13</v>
       </c>
       <c r="H30" s="13">
-        <f>SUM(I30:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="14"/>
+        <f>SUM(I30:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="13"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-    </row>
-    <row r="31" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -1454,31 +1502,35 @@
         <v>0</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" ref="I31:N31" si="7">I30-I29</f>
+        <f>I30-I29</f>
         <v>0</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J31:O31" si="6">J30-J29</f>
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L31" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N31" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A32" s="23"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -1497,28 +1549,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="18" t="e">
-        <f t="shared" ref="J32:N32" si="8">J31/J29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="18" t="e">
-        <f t="shared" si="8"/>
+        <f>J31/J29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="18" t="e">
+        <f t="shared" ref="K32:O32" si="7">K31/K29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="19" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="18" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="18" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1"/>
-    <row r="34" spans="1:14" ht="33" customHeight="1" thickBot="1">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" thickBot="1"/>
+    <row r="34" spans="1:15" ht="33" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1543,26 +1599,27 @@
       <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+    <row r="35" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -1575,12 +1632,13 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -1591,17 +1649,18 @@
         <v>12</v>
       </c>
       <c r="H36" s="13">
-        <f>SUM(I36:N36)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="14"/>
+        <f>SUM(I36:O36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="13"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
-    </row>
-    <row r="37" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O36" s="14"/>
+    </row>
+    <row r="37" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -1612,17 +1671,18 @@
         <v>13</v>
       </c>
       <c r="H37" s="13">
-        <f>SUM(I37:N37)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="14"/>
+        <f>SUM(I37:O37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="13"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
-    </row>
-    <row r="38" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -1637,31 +1697,35 @@
         <v>0</v>
       </c>
       <c r="I38" s="13">
-        <f t="shared" ref="I38:N38" si="9">I37-I36</f>
+        <f>I37-I36</f>
         <v>0</v>
       </c>
       <c r="J38" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J38:O38" si="8">J37-J36</f>
         <v>0</v>
       </c>
       <c r="K38" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L38" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M38" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N38" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A39" s="23"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -1680,32 +1744,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="18" t="e">
-        <f t="shared" ref="J39:N39" si="10">J38/J36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="19" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="18" t="e">
-        <f t="shared" si="10"/>
+        <f>J38/J36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="18" t="e">
+        <f t="shared" ref="K39:O39" si="9">K38/K36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="19" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="18" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" thickBot="1">
       <c r="G40" s="12"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" ht="33" customHeight="1" thickBot="1">
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" ht="33" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1730,26 +1799,27 @@
       <c r="H41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+    <row r="42" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -1762,12 +1832,13 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -1778,17 +1849,18 @@
         <v>12</v>
       </c>
       <c r="H43" s="13">
-        <f>SUM(I43:N43)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="14"/>
+        <f>SUM(I43:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="13"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
-    </row>
-    <row r="44" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -1799,17 +1871,18 @@
         <v>13</v>
       </c>
       <c r="H44" s="13">
-        <f>SUM(I44:N44)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="14"/>
+        <f>SUM(I44:O44)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
-    </row>
-    <row r="45" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -1824,31 +1897,35 @@
         <v>0</v>
       </c>
       <c r="I45" s="13">
-        <f t="shared" ref="I45:N45" si="11">I44-I43</f>
+        <f>I44-I43</f>
         <v>0</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J45:O45" si="10">J44-J43</f>
         <v>0</v>
       </c>
       <c r="K45" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L45" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M45" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N45" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="18.75" customHeight="1" thickBot="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A46" s="23"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -1867,28 +1944,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J46" s="18" t="e">
-        <f t="shared" ref="J46:N46" si="12">J45/J43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="19" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="18" t="e">
-        <f t="shared" si="12"/>
+        <f>J45/J43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="18" t="e">
+        <f t="shared" ref="K46:O46" si="11">K45/K43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="19" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M46" s="18" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="18" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1"/>
-    <row r="48" spans="1:14" ht="30" customHeight="1" thickBot="1">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="18" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" thickBot="1"/>
+    <row r="48" spans="1:15" ht="30" customHeight="1" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1913,26 +1994,27 @@
       <c r="H48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="O48" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+    <row r="49" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -1945,12 +2027,13 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="5"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -1961,17 +2044,18 @@
         <v>12</v>
       </c>
       <c r="H50" s="13">
-        <f>SUM(I50:N50)</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="14"/>
+        <f>SUM(I50:O50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="13"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
-    </row>
-    <row r="51" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -1982,17 +2066,18 @@
         <v>13</v>
       </c>
       <c r="H51" s="13">
-        <f>SUM(I51:N51)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="14"/>
+        <f>SUM(I51:O51)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="13"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
-    </row>
-    <row r="52" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2007,31 +2092,35 @@
         <v>0</v>
       </c>
       <c r="I52" s="13">
-        <f t="shared" ref="I52:N52" si="13">I51-I50</f>
+        <f>I51-I50</f>
         <v>0</v>
       </c>
       <c r="J52" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J52:O52" si="12">J51-J50</f>
         <v>0</v>
       </c>
       <c r="K52" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L52" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M52" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N52" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A53" s="23"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -2050,28 +2139,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J53" s="18" t="e">
-        <f t="shared" ref="J53:N53" si="14">J52/J50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="19" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="18" t="e">
-        <f t="shared" si="14"/>
+        <f>J52/J50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="18" t="e">
+        <f t="shared" ref="K53:O53" si="13">K52/K50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" s="19" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" s="18" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N53" s="18" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1"/>
-    <row r="55" spans="1:14" ht="29.4" thickBot="1">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="18" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" thickBot="1"/>
+    <row r="55" spans="1:15" ht="29.4" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2096,26 +2189,27 @@
       <c r="H55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="O55" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1">
+    <row r="56" spans="1:15" ht="15" thickBot="1">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -2128,12 +2222,13 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="5"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-    </row>
-    <row r="57" spans="1:14" ht="15" thickBot="1">
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2144,17 +2239,18 @@
         <v>12</v>
       </c>
       <c r="H57" s="13">
-        <f>SUM(I57:N57)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="14"/>
+        <f>SUM(I57:O57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="13"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
-    </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1">
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" thickBot="1">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -2165,17 +2261,18 @@
         <v>13</v>
       </c>
       <c r="H58" s="13">
-        <f>SUM(I58:N58)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="14"/>
+        <f>SUM(I58:O58)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="13"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
-    </row>
-    <row r="59" spans="1:14" ht="15" thickBot="1">
+      <c r="O58" s="14"/>
+    </row>
+    <row r="59" spans="1:15" ht="15" thickBot="1">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -2190,31 +2287,35 @@
         <v>0</v>
       </c>
       <c r="I59" s="13">
-        <f t="shared" ref="I59:N59" si="15">I58-I57</f>
+        <f>I58-I57</f>
         <v>0</v>
       </c>
       <c r="J59" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J59:O59" si="14">J58-J57</f>
         <v>0</v>
       </c>
       <c r="K59" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L59" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M59" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N59" s="13">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" thickBot="1">
       <c r="A60" s="23"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -2233,28 +2334,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J60" s="18" t="e">
-        <f t="shared" ref="J60:N60" si="16">J59/J57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="19" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L60" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f>J59/J57</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="18" t="e">
+        <f t="shared" ref="K60:O60" si="15">K59/K57</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="19" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M60" s="18" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="18" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1"/>
-    <row r="62" spans="1:14" ht="29.4" thickBot="1">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="18" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" thickBot="1"/>
+    <row r="62" spans="1:15" ht="29.4" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -2279,26 +2384,27 @@
       <c r="H62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1">
+    <row r="63" spans="1:15" ht="15" thickBot="1">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -2311,12 +2417,13 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="5"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
-    </row>
-    <row r="64" spans="1:14" ht="15" thickBot="1">
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="1:15" ht="15" thickBot="1">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -2327,17 +2434,18 @@
         <v>12</v>
       </c>
       <c r="H64" s="13">
-        <f>SUM(I64:N64)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="14"/>
+        <f>SUM(I64:O64)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="13"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
-    </row>
-    <row r="65" spans="1:14" ht="15" thickBot="1">
+      <c r="O64" s="14"/>
+    </row>
+    <row r="65" spans="1:15" ht="15" thickBot="1">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -2348,17 +2456,18 @@
         <v>13</v>
       </c>
       <c r="H65" s="13">
-        <f>SUM(I65:N65)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="14"/>
+        <f>SUM(I65:O65)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="13"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
       <c r="N65" s="14"/>
-    </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1">
+      <c r="O65" s="14"/>
+    </row>
+    <row r="66" spans="1:15" ht="15" thickBot="1">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -2373,31 +2482,35 @@
         <v>0</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" ref="I66:N66" si="17">I65-I64</f>
+        <f>I65-I64</f>
         <v>0</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J66:O66" si="16">J65-J64</f>
         <v>0</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N66" s="13">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15" thickBot="1">
       <c r="A67" s="23"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -2416,28 +2529,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J67" s="18" t="e">
-        <f t="shared" ref="J67:N67" si="18">J66/J64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="19" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L67" s="18" t="e">
-        <f t="shared" si="18"/>
+        <f>J66/J64</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K67" s="18" t="e">
+        <f t="shared" ref="K67:O67" si="17">K66/K64</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L67" s="19" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M67" s="18" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N67" s="18" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="15" thickBot="1"/>
-    <row r="69" spans="1:14" ht="29.4" thickBot="1">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O67" s="18" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15" thickBot="1"/>
+    <row r="69" spans="1:15" ht="29.4" thickBot="1">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -2462,26 +2579,27 @@
       <c r="H69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="O69" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" thickBot="1">
+    <row r="70" spans="1:15" ht="15" thickBot="1">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -2494,12 +2612,13 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="5"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
-    </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1">
+      <c r="O70" s="4"/>
+    </row>
+    <row r="71" spans="1:15" ht="15" thickBot="1">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -2510,17 +2629,18 @@
         <v>12</v>
       </c>
       <c r="H71" s="13">
-        <f>SUM(I71:N71)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="14"/>
+        <f>SUM(I71:O71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="13"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
-    </row>
-    <row r="72" spans="1:14" ht="15" thickBot="1">
+      <c r="O71" s="14"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" thickBot="1">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -2531,17 +2651,18 @@
         <v>13</v>
       </c>
       <c r="H72" s="13">
-        <f>SUM(I72:N72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="14"/>
+        <f>SUM(I72:O72)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="13"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
       <c r="N72" s="14"/>
-    </row>
-    <row r="73" spans="1:14" ht="15" thickBot="1">
+      <c r="O72" s="14"/>
+    </row>
+    <row r="73" spans="1:15" ht="15" thickBot="1">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -2556,31 +2677,35 @@
         <v>0</v>
       </c>
       <c r="I73" s="13">
-        <f t="shared" ref="I73:N73" si="19">I72-I71</f>
+        <f>I72-I71</f>
         <v>0</v>
       </c>
       <c r="J73" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="J73:O73" si="18">J72-J71</f>
         <v>0</v>
       </c>
       <c r="K73" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L73" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M73" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N73" s="13">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15" thickBot="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15" thickBot="1">
       <c r="A74" s="23"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -2599,43 +2724,49 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J74" s="18" t="e">
-        <f t="shared" ref="J74:N74" si="20">J73/J71</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K74" s="19" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L74" s="18" t="e">
-        <f t="shared" si="20"/>
+        <f>J73/J71</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K74" s="18" t="e">
+        <f t="shared" ref="K74:O74" si="19">K73/K71</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L74" s="19" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M74" s="18" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N74" s="18" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="18">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O74" s="18" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="18">
       <c r="G77" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H77" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="18">
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="1:15" ht="18">
       <c r="G78" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H78" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="18">
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="1:15" ht="18">
       <c r="G79" s="15" t="s">
         <v>18</v>
       </c>
@@ -2643,43 +2774,23 @@
         <f>H78/H77</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="I79" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="E42:E46"/>
     <mergeCell ref="E49:E53"/>
@@ -2695,19 +2806,40 @@
     <mergeCell ref="F35:F39"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E70:E74"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ERP.Presentacion/Excel/ShippingReportVincePO.xlsx
+++ b/ERP.Presentacion/Excel/ShippingReportVincePO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lendi Solutions IT\Asa Textile Sourcing\Documentos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19566853-BDE8-4DF0-BD82-703E7ED124B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90972F6-4BF4-40FB-AA43-2103AD644466}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="25">
   <si>
     <t>S</t>
   </si>
@@ -373,6 +373,8 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -382,17 +384,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -754,34 +754,34 @@
   <sheetData>
     <row r="1" spans="1:16" ht="35.4" customHeight="1"/>
     <row r="2" spans="1:16" ht="30" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:16" ht="29.4" thickBot="1">
@@ -832,12 +832,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
@@ -851,12 +851,12 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
@@ -864,7 +864,7 @@
         <f>SUM(I8:O8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -874,12 +874,12 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
@@ -887,7 +887,7 @@
         <f>SUM(I9:O9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -896,12 +896,12 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
@@ -939,12 +939,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1009,9 @@
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1030,12 +1032,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1049,12 +1051,12 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1064,7 @@
         <f>SUM(I15:O15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -1071,12 +1073,12 @@
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1086,7 @@
         <f>SUM(I16:O16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -1094,12 +1096,12 @@
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1138,12 +1140,12 @@
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
@@ -1206,7 +1208,9 @@
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1227,12 +1231,12 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1246,12 +1250,12 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1259,7 +1263,7 @@
         <f>SUM(I22:O22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -1268,12 +1272,12 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1281,7 +1285,7 @@
         <f>SUM(I23:O23)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -1291,12 +1295,12 @@
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="6" t="s">
         <v>14</v>
       </c>
@@ -1334,12 +1338,12 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="6" t="s">
         <v>15</v>
       </c>
@@ -1404,7 +1408,9 @@
       <c r="H27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1425,12 +1431,12 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
@@ -1444,12 +1450,12 @@
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="6" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1463,7 @@
         <f>SUM(I29:O29)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -1466,12 +1472,12 @@
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1479,7 +1485,7 @@
         <f>SUM(I30:O30)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
@@ -1488,12 +1494,12 @@
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="6" t="s">
         <v>14</v>
       </c>
@@ -1531,12 +1537,12 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1599,7 +1605,9 @@
       <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1620,12 +1628,12 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="3" t="s">
         <v>11</v>
       </c>
@@ -1639,12 +1647,12 @@
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="6" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +1660,7 @@
         <f>SUM(I36:O36)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
@@ -1661,12 +1669,12 @@
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="6" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1682,7 @@
         <f>SUM(I37:O37)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -1683,12 +1691,12 @@
       <c r="O37" s="14"/>
     </row>
     <row r="38" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="6" t="s">
         <v>14</v>
       </c>
@@ -1726,12 +1734,12 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="6" t="s">
         <v>15</v>
       </c>
@@ -1799,7 +1807,9 @@
       <c r="H41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J41" s="2" t="s">
         <v>20</v>
       </c>
@@ -1820,12 +1830,12 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="3" t="s">
         <v>11</v>
       </c>
@@ -1839,12 +1849,12 @@
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="6" t="s">
         <v>12</v>
       </c>
@@ -1852,7 +1862,7 @@
         <f>SUM(I43:O43)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -1861,12 +1871,12 @@
       <c r="O43" s="14"/>
     </row>
     <row r="44" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="6" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1884,7 @@
         <f>SUM(I44:O44)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="13"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -1883,12 +1893,12 @@
       <c r="O44" s="14"/>
     </row>
     <row r="45" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="6" t="s">
         <v>14</v>
       </c>
@@ -1926,12 +1936,12 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A46" s="23"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="6" t="s">
         <v>15</v>
       </c>
@@ -1994,7 +2004,9 @@
       <c r="H48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2015,12 +2027,12 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2034,12 +2046,12 @@
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="6" t="s">
         <v>12</v>
       </c>
@@ -2047,7 +2059,7 @@
         <f>SUM(I50:O50)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="13"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
@@ -2056,12 +2068,12 @@
       <c r="O50" s="14"/>
     </row>
     <row r="51" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="6" t="s">
         <v>13</v>
       </c>
@@ -2069,7 +2081,7 @@
         <f>SUM(I51:O51)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="13"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
@@ -2078,12 +2090,12 @@
       <c r="O51" s="14"/>
     </row>
     <row r="52" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2121,12 +2133,12 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A53" s="23"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
       <c r="G53" s="6" t="s">
         <v>15</v>
       </c>
@@ -2189,7 +2201,9 @@
       <c r="H55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J55" s="2" t="s">
         <v>20</v>
       </c>
@@ -2210,12 +2224,12 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" thickBot="1">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="3" t="s">
         <v>11</v>
       </c>
@@ -2229,12 +2243,12 @@
       <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="6" t="s">
         <v>12</v>
       </c>
@@ -2242,7 +2256,7 @@
         <f>SUM(I57:O57)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="13"/>
+      <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -2251,12 +2265,12 @@
       <c r="O57" s="14"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="6" t="s">
         <v>13</v>
       </c>
@@ -2264,7 +2278,7 @@
         <f>SUM(I58:O58)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="13"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
@@ -2273,12 +2287,12 @@
       <c r="O58" s="14"/>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
       <c r="G59" s="6" t="s">
         <v>14</v>
       </c>
@@ -2316,12 +2330,12 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1">
-      <c r="A60" s="23"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
       <c r="G60" s="6" t="s">
         <v>15</v>
       </c>
@@ -2384,7 +2398,9 @@
       <c r="H62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="2"/>
+      <c r="I62" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J62" s="2" t="s">
         <v>20</v>
       </c>
@@ -2405,12 +2421,12 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="3" t="s">
         <v>11</v>
       </c>
@@ -2424,12 +2440,12 @@
       <c r="O63" s="4"/>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
       <c r="G64" s="6" t="s">
         <v>12</v>
       </c>
@@ -2437,7 +2453,7 @@
         <f>SUM(I64:O64)</f>
         <v>0</v>
       </c>
-      <c r="I64" s="13"/>
+      <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
@@ -2446,12 +2462,12 @@
       <c r="O64" s="14"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
       <c r="G65" s="6" t="s">
         <v>13</v>
       </c>
@@ -2459,7 +2475,7 @@
         <f>SUM(I65:O65)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="13"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
@@ -2468,12 +2484,12 @@
       <c r="O65" s="14"/>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="6" t="s">
         <v>14</v>
       </c>
@@ -2511,12 +2527,12 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" thickBot="1">
-      <c r="A67" s="23"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
       <c r="G67" s="6" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2595,9 @@
       <c r="H69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J69" s="2" t="s">
         <v>20</v>
       </c>
@@ -2600,12 +2618,12 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="3" t="s">
         <v>11</v>
       </c>
@@ -2619,12 +2637,12 @@
       <c r="O70" s="4"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
       <c r="G71" s="6" t="s">
         <v>12</v>
       </c>
@@ -2632,7 +2650,7 @@
         <f>SUM(I71:O71)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="13"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
@@ -2641,12 +2659,12 @@
       <c r="O71" s="14"/>
     </row>
     <row r="72" spans="1:15" ht="15" thickBot="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
       <c r="G72" s="6" t="s">
         <v>13</v>
       </c>
@@ -2654,7 +2672,7 @@
         <f>SUM(I72:O72)</f>
         <v>0</v>
       </c>
-      <c r="I72" s="13"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
@@ -2663,12 +2681,12 @@
       <c r="O72" s="14"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
       <c r="G73" s="6" t="s">
         <v>14</v>
       </c>
@@ -2706,12 +2724,12 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1">
-      <c r="A74" s="23"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
       <c r="G74" s="6" t="s">
         <v>15</v>
       </c>
@@ -2755,7 +2773,7 @@
       <c r="H77" s="16">
         <v>0</v>
       </c>
-      <c r="I77" s="26"/>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:15" ht="18">
       <c r="G78" s="15" t="s">
@@ -2764,7 +2782,7 @@
       <c r="H78" s="16">
         <v>0</v>
       </c>
-      <c r="I78" s="26"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:15" ht="18">
       <c r="G79" s="15" t="s">
@@ -2774,22 +2792,40 @@
         <f>H78/H77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I79" s="27"/>
+      <c r="I79" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="E42:E46"/>
@@ -2806,40 +2842,22 @@
     <mergeCell ref="F35:F39"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="E70:E74"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
